--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bmp4-Rgmb.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H2">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I2">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J2">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="N2">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="O2">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="P2">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="Q2">
-        <v>70.94642441846045</v>
+        <v>80.42662571149334</v>
       </c>
       <c r="R2">
-        <v>70.94642441846045</v>
+        <v>723.8396314034401</v>
       </c>
       <c r="S2">
-        <v>0.08656687832835172</v>
+        <v>0.07540980696866709</v>
       </c>
       <c r="T2">
-        <v>0.08656687832835172</v>
+        <v>0.1002477728143545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H3">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I3">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J3">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="N3">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="O3">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="P3">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="Q3">
-        <v>47.92105738485989</v>
+        <v>59.93380715620833</v>
       </c>
       <c r="R3">
-        <v>47.92105738485989</v>
+        <v>539.404264405875</v>
       </c>
       <c r="S3">
-        <v>0.05847195793170527</v>
+        <v>0.05619528096030911</v>
       </c>
       <c r="T3">
-        <v>0.05847195793170527</v>
+        <v>0.07470449780210413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H4">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I4">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J4">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="N4">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="O4">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="P4">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="Q4">
-        <v>23.3802921534444</v>
+        <v>29.57781240443166</v>
       </c>
       <c r="R4">
-        <v>23.3802921534444</v>
+        <v>266.200311639885</v>
       </c>
       <c r="S4">
-        <v>0.0285279902788434</v>
+        <v>0.02773281987453685</v>
       </c>
       <c r="T4">
-        <v>0.0285279902788434</v>
+        <v>0.03686726618248928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H5">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I5">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J5">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.77594774497858</v>
+        <v>2.934898</v>
       </c>
       <c r="N5">
-        <v>2.77594774497858</v>
+        <v>8.804694</v>
       </c>
       <c r="O5">
-        <v>0.06283906057143963</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="P5">
-        <v>0.06283906057143963</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="Q5">
-        <v>15.80281555606416</v>
+        <v>18.80375941559</v>
       </c>
       <c r="R5">
-        <v>15.80281555606416</v>
+        <v>169.23383474031</v>
       </c>
       <c r="S5">
-        <v>0.01928216147185048</v>
+        <v>0.01763082630000554</v>
       </c>
       <c r="T5">
-        <v>0.01928216147185048</v>
+        <v>0.02343794713844951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.69276406036458</v>
+        <v>6.406955</v>
       </c>
       <c r="H6">
-        <v>5.69276406036458</v>
+        <v>19.220865</v>
       </c>
       <c r="I6">
-        <v>0.3068499321362265</v>
+        <v>0.2800966009992834</v>
       </c>
       <c r="J6">
-        <v>0.3068499321362265</v>
+        <v>0.3266544289500553</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.4120948905306</v>
+        <v>17.167078</v>
       </c>
       <c r="N6">
-        <v>16.4120948905306</v>
+        <v>34.334156</v>
       </c>
       <c r="O6">
-        <v>0.3715201868608032</v>
+        <v>0.3681867845873241</v>
       </c>
       <c r="P6">
-        <v>0.3715201868608032</v>
+        <v>0.2797970482336007</v>
       </c>
       <c r="Q6">
-        <v>93.43018394810576</v>
+        <v>109.98869622749</v>
       </c>
       <c r="R6">
-        <v>93.43018394810576</v>
+        <v>659.93217736494</v>
       </c>
       <c r="S6">
-        <v>0.1140009441254757</v>
+        <v>0.1031278668957648</v>
       </c>
       <c r="T6">
-        <v>0.1140009441254757</v>
+        <v>0.09139694501265794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H7">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I7">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J7">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="N7">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="O7">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="P7">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="Q7">
-        <v>83.13760096242362</v>
+        <v>83.93514421675202</v>
       </c>
       <c r="R7">
-        <v>83.13760096242362</v>
+        <v>755.4162979507682</v>
       </c>
       <c r="S7">
-        <v>0.1014422170816619</v>
+        <v>0.07869947255996822</v>
       </c>
       <c r="T7">
-        <v>0.1014422170816619</v>
+        <v>0.1046209659319152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H8">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I8">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J8">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="N8">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="O8">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="P8">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="Q8">
-        <v>56.15563827517186</v>
+        <v>62.54835015907501</v>
       </c>
       <c r="R8">
-        <v>56.15563827517186</v>
+        <v>562.9351514316751</v>
       </c>
       <c r="S8">
-        <v>0.06851956734767921</v>
+        <v>0.05864673508278736</v>
       </c>
       <c r="T8">
-        <v>0.06851956734767921</v>
+        <v>0.07796339509694965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H9">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I9">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J9">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="N9">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="O9">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="P9">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="Q9">
-        <v>27.39787685384984</v>
+        <v>30.868110253533</v>
       </c>
       <c r="R9">
-        <v>27.39787685384984</v>
+        <v>277.812992281797</v>
       </c>
       <c r="S9">
-        <v>0.03343013677579004</v>
+        <v>0.028942632058898</v>
       </c>
       <c r="T9">
-        <v>0.03343013677579004</v>
+        <v>0.03847555801986618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H10">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I10">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J10">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.77594774497858</v>
+        <v>2.934898</v>
       </c>
       <c r="N10">
-        <v>2.77594774497858</v>
+        <v>8.804694</v>
       </c>
       <c r="O10">
-        <v>0.06283906057143963</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="P10">
-        <v>0.06283906057143963</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="Q10">
-        <v>18.518314130021</v>
+        <v>19.624051666998</v>
       </c>
       <c r="R10">
-        <v>18.518314130021</v>
+        <v>176.616465002982</v>
       </c>
       <c r="S10">
-        <v>0.02259553824283497</v>
+        <v>0.01839995070115185</v>
       </c>
       <c r="T10">
-        <v>0.02259553824283497</v>
+        <v>0.02446040046821507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.67098801247928</v>
+        <v>6.686451000000001</v>
       </c>
       <c r="H11">
-        <v>6.67098801247928</v>
+        <v>20.059353</v>
       </c>
       <c r="I11">
-        <v>0.3595779128038819</v>
+        <v>0.2923154911886005</v>
       </c>
       <c r="J11">
-        <v>0.3595779128038819</v>
+        <v>0.3409043505233807</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.4120948905306</v>
+        <v>17.167078</v>
       </c>
       <c r="N11">
-        <v>16.4120948905306</v>
+        <v>34.334156</v>
       </c>
       <c r="O11">
-        <v>0.3715201868608032</v>
+        <v>0.3681867845873241</v>
       </c>
       <c r="P11">
-        <v>0.3715201868608032</v>
+        <v>0.2797970482336007</v>
       </c>
       <c r="Q11">
-        <v>109.4848882744021</v>
+        <v>114.786825860178</v>
       </c>
       <c r="R11">
-        <v>109.4848882744021</v>
+        <v>688.7209551610681</v>
       </c>
       <c r="S11">
-        <v>0.1335904533559158</v>
+        <v>0.1076267007857951</v>
       </c>
       <c r="T11">
-        <v>0.1335904533559158</v>
+        <v>0.09538403100643468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H12">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I12">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J12">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.4625618884189</v>
+        <v>12.55301866666667</v>
       </c>
       <c r="N12">
-        <v>12.4625618884189</v>
+        <v>37.65905600000001</v>
       </c>
       <c r="O12">
-        <v>0.2821147057967092</v>
+        <v>0.2692278546031339</v>
       </c>
       <c r="P12">
-        <v>0.2821147057967092</v>
+        <v>0.3068924341132449</v>
       </c>
       <c r="Q12">
-        <v>77.12483924080883</v>
+        <v>122.7771151012774</v>
       </c>
       <c r="R12">
-        <v>77.12483924080883</v>
+        <v>736.6626906076642</v>
       </c>
       <c r="S12">
-        <v>0.09410561038669556</v>
+        <v>0.1151185750744986</v>
       </c>
       <c r="T12">
-        <v>0.09410561038669556</v>
+        <v>0.1020236953669753</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H13">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I13">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J13">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.417889249706739</v>
+        <v>9.354491666666666</v>
       </c>
       <c r="N13">
-        <v>8.417889249706739</v>
+        <v>28.063475</v>
       </c>
       <c r="O13">
-        <v>0.1905555511276651</v>
+        <v>0.200628214551068</v>
       </c>
       <c r="P13">
-        <v>0.1905555511276651</v>
+        <v>0.2286958056629511</v>
       </c>
       <c r="Q13">
-        <v>52.09429336787281</v>
+        <v>91.49333164954584</v>
       </c>
       <c r="R13">
-        <v>52.09429336787281</v>
+        <v>548.9599898972751</v>
       </c>
       <c r="S13">
-        <v>0.06356402584828058</v>
+        <v>0.08578619850797149</v>
       </c>
       <c r="T13">
-        <v>0.06356402584828058</v>
+        <v>0.07602791276389737</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H14">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I14">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J14">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.10701935044662</v>
+        <v>4.616516333333333</v>
       </c>
       <c r="N14">
-        <v>4.10701935044662</v>
+        <v>13.849549</v>
       </c>
       <c r="O14">
-        <v>0.09297049564338296</v>
+        <v>0.09901162590190733</v>
       </c>
       <c r="P14">
-        <v>0.09297049564338296</v>
+        <v>0.1128632062359889</v>
       </c>
       <c r="Q14">
-        <v>25.41637987422444</v>
+        <v>45.15268974543017</v>
       </c>
       <c r="R14">
-        <v>25.41637987422444</v>
+        <v>270.9161384725811</v>
       </c>
       <c r="S14">
-        <v>0.03101236858874951</v>
+        <v>0.04233617396847248</v>
       </c>
       <c r="T14">
-        <v>0.03101236858874951</v>
+        <v>0.03752038203363347</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H15">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I15">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J15">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.77594774497858</v>
+        <v>2.934898</v>
       </c>
       <c r="N15">
-        <v>2.77594774497858</v>
+        <v>8.804694</v>
       </c>
       <c r="O15">
-        <v>0.06283906057143963</v>
+        <v>0.06294552035656671</v>
       </c>
       <c r="P15">
-        <v>0.06283906057143963</v>
+        <v>0.07175150575421439</v>
       </c>
       <c r="Q15">
-        <v>17.17901387284669</v>
+        <v>28.705311377681</v>
       </c>
       <c r="R15">
-        <v>17.17901387284669</v>
+        <v>172.231868266086</v>
       </c>
       <c r="S15">
-        <v>0.02096136085675418</v>
+        <v>0.02691474335540932</v>
       </c>
       <c r="T15">
-        <v>0.02096136085675418</v>
+        <v>0.02385315814754981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.18852206563393</v>
+        <v>9.780684500000001</v>
       </c>
       <c r="H16">
-        <v>6.18852206563393</v>
+        <v>19.561369</v>
       </c>
       <c r="I16">
-        <v>0.3335721550598916</v>
+        <v>0.4275879078121161</v>
       </c>
       <c r="J16">
-        <v>0.3335721550598916</v>
+        <v>0.332441220526564</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.4120948905306</v>
+        <v>17.167078</v>
       </c>
       <c r="N16">
-        <v>16.4120948905306</v>
+        <v>34.334156</v>
       </c>
       <c r="O16">
-        <v>0.3715201868608032</v>
+        <v>0.3681867845873241</v>
       </c>
       <c r="P16">
-        <v>0.3715201868608032</v>
+        <v>0.2797970482336007</v>
       </c>
       <c r="Q16">
-        <v>101.5666113733265</v>
+        <v>167.905773704891</v>
       </c>
       <c r="R16">
-        <v>101.5666113733265</v>
+        <v>671.6230948195641</v>
       </c>
       <c r="S16">
-        <v>0.1239287893794117</v>
+        <v>0.1574322169057642</v>
       </c>
       <c r="T16">
-        <v>0.1239287893794117</v>
+        <v>0.09301607221450812</v>
       </c>
     </row>
   </sheetData>
